--- a/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
+++ b/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
+++ b/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B249"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing']</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS']</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH']</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v']</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6']</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO']</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1']</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing']</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0']</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d']</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring']</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m']</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m']</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c']</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv']</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv']</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i']</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN']</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv']</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing']</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8']</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5']</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2']</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y']</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s']</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d']</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR']</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z']</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase']</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1']</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH']</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5']</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3']</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c']</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z']</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s']</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7']</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13']</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d']</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon']</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1']</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5']</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s']</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv']</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h']</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23']</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC']</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB']</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c']</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS']</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x']</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m']</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d']</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD']</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12']</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s']</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l']</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i']</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1']</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv']</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3']</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z']</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c']</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s']</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7']</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c']</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d']</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9']</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i']</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe']</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O']</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH']</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i']</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3']</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d']</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p']</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s']</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv']</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9']</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing']</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m']</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c']</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10']</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s']</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO']</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v']</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m']</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3']</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing']</t>
         </is>
       </c>
     </row>
@@ -2851,77 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>243</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO']</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>244</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v']</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m']</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>246</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3']</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>247</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>248</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing', 'MATS6dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing', 'MATS6dv']</t>
         </is>
       </c>
     </row>

--- a/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
+++ b/My HDAC2/output/shapes_and_features/0.75_shapes_and_features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing']</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m']</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m']</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c']</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv']</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv']</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i']</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN']</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv']</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing']</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8']</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5']</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2']</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y']</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s']</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d']</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR']</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z']</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase']</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1']</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH']</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5']</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3']</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c']</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z']</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s']</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7']</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13']</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d']</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon']</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1']</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5']</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s']</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv']</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h']</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23']</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC']</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB']</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c']</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS']</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x']</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m']</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d']</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD']</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12']</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s']</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l']</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i']</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1']</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv']</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3']</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z']</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c']</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s']</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7']</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c']</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d']</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9']</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i']</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe']</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O']</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH']</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i']</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3']</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d']</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p']</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s']</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv']</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9']</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing']</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m']</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c']</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10']</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s']</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO']</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v']</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m']</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3']</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing']</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7Ring', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'nB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing', 'MATS6dv']</t>
+          <t>['IC2', 'GATS8d', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'VSA_EState6', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'n6HRing', 'MINaaNH', 'EState_VSA4', 'VSA_EState2', 'GATS1i', 'JGI10', 'AETA_eta_L', 'MATS1s', 'nHRing', 'MWC10', 'nHBAcc', 'VSA_EState9', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'GATS4dv', 'AATS2i', 'fMF', 'AATS8se', 'CIC5', 'ATSC1i', 'PEOE_VSA6', 'MIC1', 'GATS7dv', 'ATSC8d', 'GGI1', 'SRW05', 'SMR_VSA4', 'RNCG', 'GATS7c', 'AATS0p', 'GATS8m', 'MINssO', 'MATS1d', 'GATS8c', 'BCUTc-1l', 'SM1_DzZ', 'SlogP_VSA11', 'ATSC7s', 'VE3_A', 'PEOE_VSA10', 'MATS7se', 'MATS4are', 'VE2_A', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'MDEC-34', 'AATSC5m', 'MAXdO', 'PEOE_VSA9', 'AATSC6Z', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'AXp-7d', 'MINsNH2', 'JGT10', 'n10FaHRing', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATSC6p', 'MAXsCH3', 'GATS8pe', 'ATSC7dv', 'SMR_VSA6', 'ETA_dPsi_A', 'VSA_EState7', 'MDEC-13', 'WPath', 'AMID_N', 'MATS2se', 'ATSC4dv', 'ATSC5p', 'SsssN', 'PEOE_VSA11', 'PEOE_VSA12', 'GATS6d', 'AMID_h', 'GATS2se', 'AATSC8v', 'GATS7i', 'MINdssC', 'AATS5s', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'AATS2s', 'ATSC0se', 'MATS2m', 'AATS1s', 'GATS4are', 'C1SP3', 'GATS7m', 'AATS1i', 'RotRatio', 'Xpc-6dv', 'nAcid', 'MAXsI', 'nFaHRing', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'NssO', 'C2SP1', 'n10FRing', 'SIC0', 'AATSC0d', 'n7AHRing', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'AATS2dv', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'GATS1dv', 'nFRing', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'AATSC3s', 'AATS7d', 'AETA_eta_BR', 'GATS4Z', 'nBase', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'VSA_EState5', 'BIC3', 'MATS3c', 'ATS0Z', 'ATSC8s', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'PEOE_VSA1', 'ZMIC5', 'ATSC6s', 'NssssSi', 'ATSC2dv', 'BCUTs-1h', 'MDEN-23', 'MAXssssC', 'NsssB', 'GATS6c', 'NaaS', 'ETA_shape_x', 'ATSC8m', 'Xc-6d', 'nBondsD', 'GATS3c', 'MDEO-12', 'GATS5s', 'BCUTdv-1l', 'AATS7i', 'ZMIC1', 'ATSC5dv', 'C3SP3', 'GATS5Z', 'GATS1c', 'AATSC0v', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATSC0c', 'GATS5d', 'JGI9', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'Kier3', 'MINssCH2', 'MATS7d', 'ATSC7p', 'ATSC5s', 'AXp-3dv', 'EState_VSA9', 'n4HRing', 'ATSC1m', 'ATSC8c', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MINaaO', 'ATSC8v', 'ATSC3m', 'VSA_EState3', 'n9FRing', 'MATS6dv']</t>
         </is>
       </c>
     </row>
